--- a/TitanSiege/Data/Excel/技能配置表.xlsx
+++ b/TitanSiege/Data/Excel/技能配置表.xlsx
@@ -7,35 +7,19 @@
     <workbookView windowWidth="20330" windowHeight="10610" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="效果list" sheetId="1" r:id="rId1"/>
-    <sheet name="技能配置表" sheetId="2" r:id="rId2"/>
-    <sheet name="攻击点list" sheetId="3" r:id="rId3"/>
+    <sheet name="技能配置表" sheetId="1" r:id="rId1"/>
+    <sheet name="事件list" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>效果ID</t>
-  </si>
-  <si>
-    <t>延迟时间</t>
-  </si>
-  <si>
-    <t>效果类型</t>
-  </si>
-  <si>
-    <t>效果值1</t>
-  </si>
-  <si>
-    <t>效果值2</t>
-  </si>
-  <si>
     <t>技能名称</t>
   </si>
   <si>
@@ -57,10 +41,16 @@
     <t>冷却</t>
   </si>
   <si>
+    <t>使用碰撞</t>
+  </si>
+  <si>
     <t>范围</t>
   </si>
   <si>
     <t>角度</t>
+  </si>
+  <si>
+    <t>位移</t>
   </si>
   <si>
     <t>特效</t>
@@ -176,13 +166,13 @@
     <t>lang_lueji</t>
   </si>
   <si>
-    <t>攻击ID</t>
-  </si>
-  <si>
-    <t>效果值3</t>
-  </si>
-  <si>
-    <t/>
+    <t>事件ID</t>
+  </si>
+  <si>
+    <t>事件类型</t>
+  </si>
+  <si>
+    <t>事件时间</t>
   </si>
 </sst>
 </file>
@@ -806,8 +796,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1128,20 +1121,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="2" width="9.13636363636364" customWidth="1"/>
-    <col min="3" max="4" width="9.25454545454545" customWidth="1"/>
-    <col min="5" max="6" width="9.13636363636364" customWidth="1"/>
+    <col min="1" max="1" width="9.13636363636364" customWidth="1"/>
+    <col min="2" max="2" width="9.25454545454545" customWidth="1"/>
+    <col min="3" max="3" width="24.6545454545455" customWidth="1"/>
+    <col min="4" max="4" width="24.0545454545455" customWidth="1"/>
+    <col min="5" max="6" width="9.25454545454545" customWidth="1"/>
+    <col min="7" max="7" width="15.8545454545455" customWidth="1"/>
+    <col min="8" max="8" width="9.13636363636364" customWidth="1"/>
+    <col min="9" max="9" width="9.25454545454545" customWidth="1"/>
+    <col min="10" max="12" width="9.13636363636364" customWidth="1"/>
+    <col min="13" max="13" width="17.4727272727273" customWidth="1"/>
+    <col min="14" max="14" width="9.25454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1160,56 +1161,337 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>5</v>
       </c>
+      <c r="K2">
+        <v>90</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:14">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0.2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>360</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>70</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>90</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="K5">
+        <v>360</v>
+      </c>
+      <c r="L5">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>360</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>101</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>90</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>102</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>90</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1221,448 +1503,100 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.13636363636364" customWidth="1"/>
-    <col min="2" max="2" width="9.25454545454545" customWidth="1"/>
-    <col min="3" max="3" width="24.6545454545455" customWidth="1"/>
-    <col min="4" max="4" width="24.0545454545455" customWidth="1"/>
-    <col min="5" max="6" width="9.25454545454545" customWidth="1"/>
-    <col min="7" max="7" width="15.8545454545455" customWidth="1"/>
-    <col min="8" max="10" width="9.13636363636364" customWidth="1"/>
-    <col min="11" max="11" width="17.4727272727273" customWidth="1"/>
-    <col min="12" max="12" width="9.25454545454545" customWidth="1"/>
+    <col min="1" max="2" width="9.13636363636364" customWidth="1"/>
+    <col min="3" max="4" width="9.25454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>90</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>60</v>
-      </c>
-      <c r="G3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>360</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>70</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>90</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>70</v>
-      </c>
-      <c r="G5">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>10</v>
       </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>360</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0.5</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>360</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>101</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>0.5</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>90</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>102</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>90</v>
-      </c>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="3" width="9.13636363636364" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>4</v>
-      </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>101</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>102</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TitanSiege/Data/Excel/技能配置表.xlsx
+++ b/TitanSiege/Data/Excel/技能配置表.xlsx
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>角度</t>
-  </si>
-  <si>
-    <t>位移</t>
   </si>
   <si>
     <t>特效</t>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>事件时间</t>
+  </si>
+  <si>
+    <t>效果值</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7"/>
@@ -1137,12 +1137,12 @@
     <col min="7" max="7" width="15.8545454545455" customWidth="1"/>
     <col min="8" max="8" width="9.13636363636364" customWidth="1"/>
     <col min="9" max="9" width="9.25454545454545" customWidth="1"/>
-    <col min="10" max="12" width="9.13636363636364" customWidth="1"/>
-    <col min="13" max="13" width="17.4727272727273" customWidth="1"/>
-    <col min="14" max="14" width="9.25454545454545" customWidth="1"/>
+    <col min="10" max="11" width="9.13636363636364" customWidth="1"/>
+    <col min="12" max="12" width="17.4727272727273" customWidth="1"/>
+    <col min="13" max="13" width="9.25454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1182,22 +1182,19 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1206,7 +1203,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1220,28 +1217,25 @@
       <c r="K2">
         <v>90</v>
       </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1264,28 +1258,25 @@
       <c r="K3">
         <v>360</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3">
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1308,28 +1299,25 @@
       <c r="K4">
         <v>90</v>
       </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4">
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1352,28 +1340,25 @@
       <c r="K5">
         <v>360</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5">
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1396,28 +1381,25 @@
       <c r="K6">
         <v>360</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6">
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1440,28 +1422,25 @@
       <c r="K7">
         <v>90</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1484,13 +1463,10 @@
       <c r="K8">
         <v>90</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8">
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
     </row>
@@ -1503,33 +1479,37 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="9.13636363636364" customWidth="1"/>
     <col min="3" max="4" width="9.25454545454545" customWidth="1"/>
+    <col min="5" max="5" width="9.13636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1542,38 +1522,47 @@
       <c r="D2">
         <v>10</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
         <v>2</v>
-      </c>
-      <c r="D4">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1582,21 +1571,61 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>73</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>10</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TitanSiege/Data/Excel/技能配置表.xlsx
+++ b/TitanSiege/Data/Excel/技能配置表.xlsx
@@ -1479,13 +1479,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="9.13636363636364" customWidth="1"/>
     <col min="3" max="4" width="9.25454545454545" customWidth="1"/>
@@ -1562,16 +1562,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1596,16 +1596,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1625,6 +1625,23 @@
         <v>10</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
     </row>

--- a/TitanSiege/Data/Excel/技能配置表.xlsx
+++ b/TitanSiege/Data/Excel/技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20330" windowHeight="10610" activeTab="1"/>
+    <workbookView windowWidth="20330" windowHeight="10610"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置表" sheetId="1" r:id="rId1"/>
@@ -1123,8 +1123,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7"/>
@@ -1250,7 +1250,7 @@
         <v>8</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -1481,7 +1481,7 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>

--- a/TitanSiege/Data/Excel/技能配置表.xlsx
+++ b/TitanSiege/Data/Excel/技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20330" windowHeight="10610"/>
+    <workbookView windowWidth="30048" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置表" sheetId="1" r:id="rId1"/>
@@ -1124,22 +1124,22 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9.13636363636364" customWidth="1"/>
-    <col min="2" max="2" width="9.25454545454545" customWidth="1"/>
-    <col min="3" max="3" width="24.6545454545455" customWidth="1"/>
-    <col min="4" max="4" width="24.0545454545455" customWidth="1"/>
-    <col min="5" max="6" width="9.25454545454545" customWidth="1"/>
-    <col min="7" max="7" width="15.8545454545455" customWidth="1"/>
-    <col min="8" max="8" width="9.13636363636364" customWidth="1"/>
-    <col min="9" max="9" width="9.25454545454545" customWidth="1"/>
-    <col min="10" max="11" width="9.13636363636364" customWidth="1"/>
-    <col min="12" max="12" width="17.4727272727273" customWidth="1"/>
-    <col min="13" max="13" width="9.25454545454545" customWidth="1"/>
+    <col min="1" max="1" width="9.13888888888889" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="24.6574074074074" customWidth="1"/>
+    <col min="4" max="4" width="24.0555555555556" customWidth="1"/>
+    <col min="5" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="15.8518518518519" customWidth="1"/>
+    <col min="8" max="8" width="9.13888888888889" customWidth="1"/>
+    <col min="9" max="9" width="9.25" customWidth="1"/>
+    <col min="10" max="11" width="9.13888888888889" customWidth="1"/>
+    <col min="12" max="12" width="17.4722222222222" customWidth="1"/>
+    <col min="13" max="13" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1479,17 +1479,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="9.13636363636364" customWidth="1"/>
-    <col min="3" max="4" width="9.25454545454545" customWidth="1"/>
-    <col min="5" max="5" width="9.13636363636364" customWidth="1"/>
+    <col min="1" max="2" width="9.13888888888889" customWidth="1"/>
+    <col min="3" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="9.13888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1605,24 +1605,24 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1642,6 +1642,23 @@
         <v>10</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
     </row>

--- a/TitanSiege/Data/Excel/技能配置表.xlsx
+++ b/TitanSiege/Data/Excel/技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13620"/>
+    <workbookView windowWidth="30048" windowHeight="13620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置表" sheetId="1" r:id="rId1"/>
@@ -1123,8 +1123,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1215,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="K2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
@@ -1479,10 +1479,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1630,16 +1630,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1656,9 +1656,179 @@
         <v>2</v>
       </c>
       <c r="D10">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="E10">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>57</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>66</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>99</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
         <v>0</v>
       </c>
     </row>

--- a/TitanSiege/Data/Excel/技能配置表.xlsx
+++ b/TitanSiege/Data/Excel/技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13620" activeTab="1"/>
+    <workbookView windowWidth="30048" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置表" sheetId="1" r:id="rId1"/>
@@ -1123,8 +1123,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>90</v>
@@ -1479,10 +1479,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1656,7 +1656,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1707,7 +1707,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1724,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1732,19 +1732,19 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1752,13 +1752,13 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1769,13 +1769,13 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1786,13 +1786,13 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1803,13 +1803,13 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1817,18 +1817,35 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
         <v>5</v>
       </c>
-      <c r="B20">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>10</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>0</v>
       </c>
     </row>

--- a/TitanSiege/Data/Excel/技能配置表.xlsx
+++ b/TitanSiege/Data/Excel/技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13620"/>
+    <workbookView windowWidth="30720" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置表" sheetId="1" r:id="rId1"/>
@@ -1123,8 +1123,8 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1481,8 +1481,8 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1718,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -1735,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -1752,7 +1752,7 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1769,7 +1769,7 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1786,7 +1786,7 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1820,7 +1820,7 @@
         <v>4</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -1837,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>2</v>

--- a/TitanSiege/Data/Excel/技能配置表.xlsx
+++ b/TitanSiege/Data/Excel/技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13020" activeTab="1"/>
+    <workbookView windowWidth="30048" windowHeight="13620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置表" sheetId="1" r:id="rId1"/>
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1482,7 +1482,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1724,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E14">
         <v>0</v>

--- a/TitanSiege/Data/Excel/技能配置表.xlsx
+++ b/TitanSiege/Data/Excel/技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13620" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="10610"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -151,16 +151,13 @@
     <t>no</t>
   </si>
   <si>
-    <t>lang_zhuashang</t>
-  </si>
-  <si>
-    <t>掠鸡</t>
+    <t>撕咬</t>
   </si>
   <si>
     <t>野狼进阶攻击</t>
   </si>
   <si>
-    <t>lang_lueji</t>
+    <t>lang_skill2</t>
   </si>
   <si>
     <t>事件ID</t>
@@ -1123,23 +1120,23 @@
   <sheetPr/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9.13888888888889" customWidth="1"/>
-    <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="24.6574074074074" customWidth="1"/>
-    <col min="4" max="4" width="24.0555555555556" customWidth="1"/>
-    <col min="5" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="15.8518518518519" customWidth="1"/>
-    <col min="8" max="8" width="9.13888888888889" customWidth="1"/>
-    <col min="9" max="9" width="9.25" customWidth="1"/>
-    <col min="10" max="11" width="9.13888888888889" customWidth="1"/>
-    <col min="12" max="12" width="17.4722222222222" customWidth="1"/>
-    <col min="13" max="13" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="9.13636363636364" customWidth="1"/>
+    <col min="2" max="2" width="9.25454545454545" customWidth="1"/>
+    <col min="3" max="3" width="24.6545454545455" customWidth="1"/>
+    <col min="4" max="4" width="24.0545454545455" customWidth="1"/>
+    <col min="5" max="6" width="9.25454545454545" customWidth="1"/>
+    <col min="7" max="7" width="15.8545454545455" customWidth="1"/>
+    <col min="8" max="8" width="9.13636363636364" customWidth="1"/>
+    <col min="9" max="9" width="9.25454545454545" customWidth="1"/>
+    <col min="10" max="11" width="9.13636363636364" customWidth="1"/>
+    <col min="12" max="12" width="17.4727272727273" customWidth="1"/>
+    <col min="13" max="13" width="9.25454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1405,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1423,7 +1420,7 @@
         <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1434,10 +1431,10 @@
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
@@ -1446,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1464,7 +1461,7 @@
         <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1479,17 +1476,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="9.13888888888889" customWidth="1"/>
-    <col min="3" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="9.13888888888889" customWidth="1"/>
+    <col min="1" max="2" width="9.13636363636364" customWidth="1"/>
+    <col min="3" max="4" width="9.25454545454545" customWidth="1"/>
+    <col min="5" max="5" width="9.13636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1497,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1846,6 +1843,57 @@
         <v>10</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>101</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>46</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>102</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>102</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
         <v>0</v>
       </c>
     </row>

--- a/TitanSiege/Data/Excel/技能配置表.xlsx
+++ b/TitanSiege/Data/Excel/技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="10610"/>
+    <workbookView windowWidth="30720" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>需求等级</t>
+  </si>
+  <si>
+    <t>技能消耗</t>
   </si>
   <si>
     <t>英勇冲撞</t>
@@ -1118,28 +1121,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9.13636363636364" customWidth="1"/>
-    <col min="2" max="2" width="9.25454545454545" customWidth="1"/>
-    <col min="3" max="3" width="24.6545454545455" customWidth="1"/>
-    <col min="4" max="4" width="24.0545454545455" customWidth="1"/>
-    <col min="5" max="6" width="9.25454545454545" customWidth="1"/>
-    <col min="7" max="7" width="15.8545454545455" customWidth="1"/>
-    <col min="8" max="8" width="9.13636363636364" customWidth="1"/>
-    <col min="9" max="9" width="9.25454545454545" customWidth="1"/>
-    <col min="10" max="11" width="9.13636363636364" customWidth="1"/>
-    <col min="12" max="12" width="17.4727272727273" customWidth="1"/>
-    <col min="13" max="13" width="9.25454545454545" customWidth="1"/>
+    <col min="1" max="1" width="9.13888888888889" customWidth="1"/>
+    <col min="2" max="2" width="9.51851851851852" customWidth="1"/>
+    <col min="3" max="3" width="25.2037037037037" customWidth="1"/>
+    <col min="4" max="4" width="24.5925925925926" customWidth="1"/>
+    <col min="5" max="6" width="9.51851851851852" customWidth="1"/>
+    <col min="7" max="7" width="16.2407407407407" customWidth="1"/>
+    <col min="8" max="8" width="9.13888888888889" customWidth="1"/>
+    <col min="9" max="9" width="9.51851851851852" customWidth="1"/>
+    <col min="10" max="11" width="9.13888888888889" customWidth="1"/>
+    <col min="12" max="12" width="17.8888888888889" customWidth="1"/>
+    <col min="13" max="14" width="9.51851851851852" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1179,19 +1182,22 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1200,7 +1206,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1215,24 +1221,27 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1256,24 +1265,27 @@
         <v>360</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1297,24 +1309,27 @@
         <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1338,24 +1353,27 @@
         <v>360</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1379,24 +1397,27 @@
         <v>360</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1420,24 +1441,27 @@
         <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1461,9 +1485,12 @@
         <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>0</v>
       </c>
     </row>
@@ -1479,14 +1506,14 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="9.13636363636364" customWidth="1"/>
-    <col min="3" max="4" width="9.25454545454545" customWidth="1"/>
-    <col min="5" max="5" width="9.13636363636364" customWidth="1"/>
+    <col min="1" max="2" width="9.13888888888889" customWidth="1"/>
+    <col min="3" max="4" width="9.51851851851852" customWidth="1"/>
+    <col min="5" max="5" width="9.13888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1494,16 +1521,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/TitanSiege/Data/Excel/技能配置表.xlsx
+++ b/TitanSiege/Data/Excel/技能配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13020"/>
+    <workbookView windowWidth="30720" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -136,13 +136,22 @@
     <t>jianshi_xuanfengzhan</t>
   </si>
   <si>
-    <t>剑士普攻</t>
+    <t>剑士普攻1</t>
   </si>
   <si>
     <t>剑士的普通攻击，一共三段</t>
   </si>
   <si>
     <t>UIRes/Skill/jsattack.png</t>
+  </si>
+  <si>
+    <t>daoguang</t>
+  </si>
+  <si>
+    <t>剑士普攻2</t>
+  </si>
+  <si>
+    <t>剑士普攻3</t>
   </si>
   <si>
     <t>抓伤</t>
@@ -1121,17 +1130,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.13888888888889" customWidth="1"/>
     <col min="2" max="2" width="9.51851851851852" customWidth="1"/>
-    <col min="3" max="3" width="25.2037037037037" customWidth="1"/>
+    <col min="3" max="3" width="50.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="24.5925925925926" customWidth="1"/>
     <col min="5" max="6" width="9.51851851851852" customWidth="1"/>
     <col min="7" max="7" width="16.2407407407407" customWidth="1"/>
@@ -1379,25 +1388,25 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -1408,28 +1417,28 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1438,13 +1447,13 @@
         <v>2</v>
       </c>
       <c r="K7">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1452,16 +1461,16 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1470,10 +1479,10 @@
         <v>40</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1482,15 +1491,103 @@
         <v>2</v>
       </c>
       <c r="K8">
+        <v>80</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>101</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
         <v>90</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L9" t="s">
         <v>40</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>102</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>90</v>
+      </c>
+      <c r="L10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>0</v>
       </c>
     </row>
@@ -1503,10 +1600,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1521,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1867,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1875,16 +1972,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1892,16 +1989,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
         <v>5</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
       <c r="D23">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1909,18 +2006,154 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>49</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>101</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>46</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
         <v>102</v>
       </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>37</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>102</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
         <v>50</v>
       </c>
-      <c r="E24">
+      <c r="E32">
         <v>0</v>
       </c>
     </row>
